--- a/data/trans_orig/IP16A98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A98-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F64FA79-664D-4C73-B43C-8FB72F1B6226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F292EB4-BD6E-4D6A-9820-6C10DBF2BD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E47C6A14-4470-4257-AE4F-C68EA5A99D4E}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5BD31301-5E26-483E-9F0A-7F141C8C77FC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -133,6 +133,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -190,63 +247,6 @@
     <t>24,54%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
     <t>84,81%</t>
   </si>
   <si>
@@ -352,6 +352,60 @@
     <t>23,4%</t>
   </si>
   <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>77,35%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
     <t>72,29%</t>
   </si>
   <si>
@@ -406,60 +460,6 @@
     <t>32,7%</t>
   </si>
   <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
     <t>73,17%</t>
   </si>
   <si>
@@ -565,6 +565,60 @@
     <t>23,75%</t>
   </si>
   <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>69,43%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>82,03%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
     <t>79,12%</t>
   </si>
   <si>
@@ -617,60 +671,6 @@
   </si>
   <si>
     <t>29,2%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
   </si>
   <si>
     <t>81,54%</t>
@@ -1116,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD10B3EB-A97C-41B9-974E-25A54F6DB766}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F806157-78BD-4D2B-95DE-C5BEE11FC58D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1389,10 +1389,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="D7" s="7">
-        <v>28566</v>
+        <v>47222</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1404,10 +1404,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>35846</v>
+        <v>41569</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1419,10 +1419,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="N7" s="7">
-        <v>64413</v>
+        <v>88791</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1443,7 +1443,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>7754</v>
+        <v>7978</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1455,10 +1455,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>5260</v>
+        <v>4198</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1470,10 +1470,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N8" s="7">
-        <v>13013</v>
+        <v>12176</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1491,10 +1491,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>36320</v>
+        <v>55200</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1506,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="I9" s="7">
-        <v>41106</v>
+        <v>45767</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1521,10 +1521,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="N9" s="7">
-        <v>77426</v>
+        <v>100967</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1544,10 +1544,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>47222</v>
+        <v>28566</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1559,10 +1559,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="I10" s="7">
-        <v>41569</v>
+        <v>35846</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1574,10 +1574,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="N10" s="7">
-        <v>88791</v>
+        <v>64413</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1598,7 +1598,7 @@
         <v>11</v>
       </c>
       <c r="D11" s="7">
-        <v>7978</v>
+        <v>7754</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1610,10 +1610,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I11" s="7">
-        <v>4198</v>
+        <v>5260</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1625,10 +1625,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N11" s="7">
-        <v>12176</v>
+        <v>13013</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1646,10 +1646,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="D12" s="7">
-        <v>55200</v>
+        <v>36320</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1661,10 +1661,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="I12" s="7">
-        <v>45767</v>
+        <v>41106</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1676,10 +1676,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="N12" s="7">
-        <v>100967</v>
+        <v>77426</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1862,7 +1862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BE3C7F3-195C-4612-88FF-9812976CC87E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669717C9-28B1-445A-B0EB-336D267741C4}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2135,10 +2135,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D7" s="7">
-        <v>29854</v>
+        <v>32868</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>104</v>
@@ -2150,10 +2150,10 @@
         <v>106</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="I7" s="7">
-        <v>30088</v>
+        <v>38802</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>107</v>
@@ -2165,10 +2165,10 @@
         <v>109</v>
       </c>
       <c r="M7" s="7">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="N7" s="7">
-        <v>59942</v>
+        <v>71671</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>110</v>
@@ -2186,10 +2186,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D8" s="7">
-        <v>11443</v>
+        <v>8955</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>113</v>
@@ -2201,10 +2201,10 @@
         <v>115</v>
       </c>
       <c r="H8" s="7">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I8" s="7">
-        <v>6984</v>
+        <v>5830</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>116</v>
@@ -2216,10 +2216,10 @@
         <v>118</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N8" s="7">
-        <v>18427</v>
+        <v>14785</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>119</v>
@@ -2237,10 +2237,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D9" s="7">
-        <v>41297</v>
+        <v>41823</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2252,10 +2252,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="I9" s="7">
-        <v>37072</v>
+        <v>44632</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2267,10 +2267,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="N9" s="7">
-        <v>78369</v>
+        <v>86456</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2290,10 +2290,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D10" s="7">
-        <v>32868</v>
+        <v>29854</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>122</v>
@@ -2305,10 +2305,10 @@
         <v>124</v>
       </c>
       <c r="H10" s="7">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>38802</v>
+        <v>30088</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>125</v>
@@ -2320,10 +2320,10 @@
         <v>127</v>
       </c>
       <c r="M10" s="7">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="N10" s="7">
-        <v>71671</v>
+        <v>59942</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>128</v>
@@ -2341,10 +2341,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D11" s="7">
-        <v>8955</v>
+        <v>11443</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>131</v>
@@ -2356,10 +2356,10 @@
         <v>133</v>
       </c>
       <c r="H11" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I11" s="7">
-        <v>5830</v>
+        <v>6984</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>134</v>
@@ -2371,10 +2371,10 @@
         <v>136</v>
       </c>
       <c r="M11" s="7">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N11" s="7">
-        <v>14785</v>
+        <v>18427</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>137</v>
@@ -2392,10 +2392,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D12" s="7">
-        <v>41823</v>
+        <v>41297</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2407,10 +2407,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>44632</v>
+        <v>37072</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2422,10 +2422,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>86456</v>
+        <v>78369</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2608,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07FEDA65-9AA4-4966-8DA6-D51B482B42FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F30372-8730-44C0-A8BF-767A4035195B}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2881,10 +2881,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7">
-        <v>67000</v>
+        <v>43489</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>175</v>
@@ -2896,10 +2896,10 @@
         <v>177</v>
       </c>
       <c r="H7" s="7">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="I7" s="7">
-        <v>58911</v>
+        <v>43944</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>178</v>
@@ -2911,10 +2911,10 @@
         <v>180</v>
       </c>
       <c r="M7" s="7">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="N7" s="7">
-        <v>125911</v>
+        <v>87434</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>181</v>
@@ -2932,10 +2932,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7">
-        <v>17680</v>
+        <v>8498</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>184</v>
@@ -2947,10 +2947,10 @@
         <v>186</v>
       </c>
       <c r="H8" s="7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7">
-        <v>14699</v>
+        <v>10659</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>187</v>
@@ -2962,10 +2962,10 @@
         <v>189</v>
       </c>
       <c r="M8" s="7">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="N8" s="7">
-        <v>32379</v>
+        <v>19156</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>190</v>
@@ -2983,10 +2983,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2998,10 +2998,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>73610</v>
+        <v>54603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3013,10 +3013,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>158290</v>
+        <v>106590</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3036,10 +3036,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="D10" s="7">
-        <v>43489</v>
+        <v>67000</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>193</v>
@@ -3051,10 +3051,10 @@
         <v>195</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="I10" s="7">
-        <v>43944</v>
+        <v>58911</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>196</v>
@@ -3066,10 +3066,10 @@
         <v>198</v>
       </c>
       <c r="M10" s="7">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="N10" s="7">
-        <v>87434</v>
+        <v>125911</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>199</v>
@@ -3087,10 +3087,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D11" s="7">
-        <v>8498</v>
+        <v>17680</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>202</v>
@@ -3102,10 +3102,10 @@
         <v>204</v>
       </c>
       <c r="H11" s="7">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>10659</v>
+        <v>14699</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>205</v>
@@ -3117,10 +3117,10 @@
         <v>207</v>
       </c>
       <c r="M11" s="7">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="N11" s="7">
-        <v>19156</v>
+        <v>32379</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>208</v>
@@ -3138,10 +3138,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3153,10 +3153,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>54603</v>
+        <v>73610</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3168,10 +3168,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>106590</v>
+        <v>158290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP16A98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A98-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F292EB4-BD6E-4D6A-9820-6C10DBF2BD35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D950C5-8FB5-414C-AB62-8F457C2420FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{5BD31301-5E26-483E-9F0A-7F141C8C77FC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1103AC5-F172-4C97-B539-FBA44072D109}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="285">
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2012 (Tasa respuesta: 20,25%)</t>
   </si>
@@ -67,664 +67,832 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>76,13%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>81,15%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>73,84%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>85,55%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>79,58%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>83,18%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido otros medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>27,92%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,69%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido otros medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>76,6%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>77,35%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>75,0%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>82,92%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>67,3%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>73,17%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>83,0%</t>
   </si>
   <si>
-    <t>77,18%</t>
-  </si>
-  <si>
-    <t>88,41%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>77,21%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
   </si>
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>42,92%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>73,48%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
   </si>
   <si>
     <t>89,82%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>69,43%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>82,03%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>87,5%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>30,57%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>79,54%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>20,46%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>29,2%</t>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>69,93%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>70,77%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>83,04%</t>
+  </si>
+  <si>
+    <t>75,44%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>42,76%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>57,24%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>74,46%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>74,19%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>76,54%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
   </si>
 </sst>
 </file>
@@ -735,7 +903,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -831,39 +999,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -915,7 +1083,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1026,13 +1194,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1041,6 +1202,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1105,19 +1273,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F806157-78BD-4D2B-95DE-C5BEE11FC58D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E54F8A9-10A8-456C-9027-930F087F85B4}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1234,10 +1422,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>78</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>55292</v>
+        <v>4304</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1249,10 +1437,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>49727</v>
+        <v>5450</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1264,10 +1452,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="N4" s="7">
-        <v>105020</v>
+        <v>9755</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1285,10 +1473,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D5" s="7">
-        <v>7743</v>
+        <v>33494</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1300,10 +1488,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I5" s="7">
-        <v>8016</v>
+        <v>30334</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1315,10 +1503,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="N5" s="7">
-        <v>15759</v>
+        <v>63827</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1336,10 +1524,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="D6" s="7">
-        <v>63035</v>
+        <v>37798</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1351,10 +1539,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>87</v>
+        <v>54</v>
       </c>
       <c r="I6" s="7">
-        <v>57743</v>
+        <v>35784</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1366,10 +1554,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="N6" s="7">
-        <v>120779</v>
+        <v>73582</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1389,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>65</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>47222</v>
+        <v>8400</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1404,10 +1592,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>56</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>41569</v>
+        <v>5293</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1419,10 +1607,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>121</v>
+        <v>20</v>
       </c>
       <c r="N7" s="7">
-        <v>88791</v>
+        <v>13693</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1440,10 +1628,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="D8" s="7">
-        <v>7978</v>
+        <v>56959</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1455,10 +1643,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="I8" s="7">
-        <v>4198</v>
+        <v>47746</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1470,10 +1658,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="N8" s="7">
-        <v>12176</v>
+        <v>104705</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1491,10 +1679,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="D9" s="7">
-        <v>55200</v>
+        <v>65359</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1506,10 +1694,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="I9" s="7">
-        <v>45767</v>
+        <v>53039</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1521,10 +1709,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="N9" s="7">
-        <v>100967</v>
+        <v>118398</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1544,10 +1732,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>28566</v>
+        <v>5427</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1559,10 +1747,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>35846</v>
+        <v>4875</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1574,10 +1762,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="N10" s="7">
-        <v>64413</v>
+        <v>10302</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1595,10 +1783,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>7754</v>
+        <v>21711</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1610,10 +1798,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="I11" s="7">
-        <v>5260</v>
+        <v>24995</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1625,10 +1813,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="N11" s="7">
-        <v>13013</v>
+        <v>46705</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1646,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="D12" s="7">
-        <v>36320</v>
+        <v>27138</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1661,10 +1849,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>41106</v>
+        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1676,10 +1864,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="N12" s="7">
-        <v>77426</v>
+        <v>57007</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1693,55 +1881,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>184</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>131080</v>
+        <v>5344</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>182</v>
+        <v>3</v>
       </c>
       <c r="I13" s="7">
-        <v>127143</v>
+        <v>1854</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>366</v>
+        <v>11</v>
       </c>
       <c r="N13" s="7">
-        <v>258223</v>
+        <v>7199</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1750,49 +1938,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>23475</v>
+        <v>18917</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="I14" s="7">
-        <v>17473</v>
+        <v>24069</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N14" s="7">
-        <v>40948</v>
+        <v>42985</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1801,55 +1989,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7">
+        <v>24261</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>37</v>
+      </c>
+      <c r="I15" s="7">
+        <v>25923</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>72</v>
+      </c>
+      <c r="N15" s="7">
+        <v>50184</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7">
+        <v>23475</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7">
+        <v>17473</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>59</v>
+      </c>
+      <c r="N16" s="7">
+        <v>40948</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>184</v>
+      </c>
+      <c r="D17" s="7">
+        <v>131080</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>182</v>
+      </c>
+      <c r="I17" s="7">
+        <v>127143</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>366</v>
+      </c>
+      <c r="N17" s="7">
+        <v>258223</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>217</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>154555</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>208</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>144616</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>425</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>299171</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1862,8 +2211,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{669717C9-28B1-445A-B0EB-336D267741C4}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2AFD2C-EEAE-4D12-8BE1-554F3219D4CF}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1879,7 +2228,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -1980,49 +2329,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>35510</v>
+        <v>3321</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>36903</v>
+        <v>4328</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7649</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="N4" s="7">
-        <v>72412</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2031,49 +2380,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>4646</v>
+        <v>20655</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>8853</v>
+        <v>22705</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="N5" s="7">
-        <v>13500</v>
+        <v>43360</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2082,10 +2431,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="D6" s="7">
-        <v>40156</v>
+        <v>23976</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2097,10 +2446,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="I6" s="7">
-        <v>45756</v>
+        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2112,10 +2461,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>135</v>
+        <v>82</v>
       </c>
       <c r="N6" s="7">
-        <v>85912</v>
+        <v>51009</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2135,49 +2484,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>32868</v>
+        <v>7638</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>38802</v>
+        <v>7828</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="N7" s="7">
-        <v>71671</v>
+        <v>15465</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2186,49 +2535,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7">
-        <v>8955</v>
+        <v>35458</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I8" s="7">
-        <v>5830</v>
+        <v>34411</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="N8" s="7">
-        <v>14785</v>
+        <v>69870</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>119</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2237,10 +2586,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D9" s="7">
-        <v>41823</v>
+        <v>43096</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2252,10 +2601,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I9" s="7">
-        <v>44632</v>
+        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2267,10 +2616,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="N9" s="7">
-        <v>86456</v>
+        <v>85335</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2290,49 +2639,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>29854</v>
+        <v>8521</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>30088</v>
+        <v>5587</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="N10" s="7">
-        <v>59942</v>
+        <v>14109</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,49 +2690,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>11443</v>
+        <v>24925</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>6984</v>
+        <v>30537</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="N11" s="7">
-        <v>18427</v>
+        <v>55461</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2392,10 +2741,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D12" s="7">
-        <v>41297</v>
+        <v>33446</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2410,7 +2759,7 @@
         <v>52</v>
       </c>
       <c r="I12" s="7">
-        <v>37072</v>
+        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2422,10 +2771,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>78369</v>
+        <v>69570</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2439,55 +2788,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>143</v>
+        <v>8</v>
       </c>
       <c r="D13" s="7">
-        <v>98231</v>
+        <v>5565</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>160</v>
+        <v>6</v>
       </c>
       <c r="I13" s="7">
-        <v>105793</v>
+        <v>3925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>142</v>
+        <v>96</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
-        <v>303</v>
+        <v>14</v>
       </c>
       <c r="N13" s="7">
-        <v>204025</v>
+        <v>9489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,49 +2845,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>25045</v>
+        <v>17193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>148</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>21668</v>
+        <v>18140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>150</v>
+        <v>104</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>68</v>
+        <v>48</v>
       </c>
       <c r="N14" s="7">
-        <v>46712</v>
+        <v>35334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>153</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2547,55 +2896,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>31</v>
+      </c>
+      <c r="D15" s="7">
+        <v>22758</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>31</v>
+      </c>
+      <c r="I15" s="7">
+        <v>22065</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>62</v>
+      </c>
+      <c r="N15" s="7">
+        <v>44823</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7">
+        <v>25045</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="7">
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
+        <v>32</v>
+      </c>
+      <c r="I16" s="7">
+        <v>21668</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="7">
+        <v>68</v>
+      </c>
+      <c r="N16" s="7">
+        <v>46712</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>143</v>
+      </c>
+      <c r="D17" s="7">
+        <v>98231</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7">
+        <v>160</v>
+      </c>
+      <c r="I17" s="7">
+        <v>105793</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" s="7">
+        <v>303</v>
+      </c>
+      <c r="N17" s="7">
+        <v>204025</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>179</v>
+      </c>
+      <c r="D18" s="7">
         <v>123276</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>192</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>127461</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>371</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>250737</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2608,8 +3118,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76F30372-8730-44C0-A8BF-767A4035195B}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F525514-58FC-479A-B5A1-A28525F56D90}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2625,7 +3135,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2726,49 +3236,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>60</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>30206</v>
+        <v>2820</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>21843</v>
+        <v>3849</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>52049</v>
+        <v>6669</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2777,49 +3287,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="D5" s="7">
-        <v>5664</v>
+        <v>18115</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>4355</v>
+        <v>12093</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>10019</v>
+        <v>30208</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,40 +3338,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20935</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15942</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
         <v>72</v>
       </c>
-      <c r="D6" s="7">
-        <v>35870</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26198</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>123</v>
-      </c>
       <c r="N6" s="7">
-        <v>62068</v>
+        <v>36877</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2881,49 +3391,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="D7" s="7">
-        <v>43489</v>
+        <v>8436</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>65</v>
+        <v>10</v>
       </c>
       <c r="I7" s="7">
-        <v>43944</v>
+        <v>6955</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
-        <v>125</v>
+        <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>87434</v>
+        <v>15391</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2932,49 +3442,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D8" s="7">
-        <v>8498</v>
+        <v>37566</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="I8" s="7">
-        <v>10659</v>
+        <v>37789</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="N8" s="7">
-        <v>19156</v>
+        <v>75355</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>192</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2983,10 +3493,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2998,10 +3508,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3013,10 +3523,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3036,49 +3546,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>67000</v>
+        <v>5749</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>194</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>195</v>
+        <v>235</v>
       </c>
       <c r="H10" s="7">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>58911</v>
+        <v>8686</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>196</v>
+        <v>236</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="M10" s="7">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>125911</v>
+        <v>14435</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3087,49 +3597,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="D11" s="7">
-        <v>17680</v>
+        <v>37834</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="H11" s="7">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="I11" s="7">
-        <v>14699</v>
+        <v>28217</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="M11" s="7">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>32379</v>
+        <v>66051</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,10 +3648,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>84680</v>
+        <v>43583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3153,10 +3663,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>73610</v>
+        <v>36903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3168,10 +3678,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>158290</v>
+        <v>80486</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3185,55 +3695,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>208</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>140695</v>
+        <v>14836</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>213</v>
+        <v>252</v>
       </c>
       <c r="H13" s="7">
-        <v>183</v>
+        <v>14</v>
       </c>
       <c r="I13" s="7">
-        <v>124699</v>
+        <v>10223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="M13" s="7">
-        <v>391</v>
+        <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>265393</v>
+        <v>25060</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3242,49 +3752,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D14" s="7">
-        <v>31842</v>
+        <v>47180</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="H14" s="7">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="I14" s="7">
-        <v>29713</v>
+        <v>46599</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>223</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>225</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="N14" s="7">
-        <v>61555</v>
+        <v>93779</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>226</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>227</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>228</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3293,55 +3803,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62016</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7">
+        <v>56822</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>148</v>
+      </c>
+      <c r="N15" s="7">
+        <v>118839</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>42</v>
+      </c>
+      <c r="D16" s="7">
+        <v>31842</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>43</v>
+      </c>
+      <c r="I16" s="7">
+        <v>29713</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="M16" s="7">
+        <v>85</v>
+      </c>
+      <c r="N16" s="7">
+        <v>61555</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>208</v>
+      </c>
+      <c r="D17" s="7">
+        <v>140695</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="7">
+        <v>183</v>
+      </c>
+      <c r="I17" s="7">
+        <v>124699</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" s="7">
+        <v>391</v>
+      </c>
+      <c r="N17" s="7">
+        <v>265393</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>250</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>172537</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>226</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>154412</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>476</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>326948</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A98-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33D950C5-8FB5-414C-AB62-8F457C2420FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE812D34-6DD0-4816-A315-987C05614730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C1103AC5-F172-4C97-B539-FBA44072D109}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A7C01EC-0387-4669-B4F3-EA25864B4A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="283">
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2012 (Tasa respuesta: 20,25%)</t>
   </si>
@@ -76,556 +76,556 @@
     <t>11,39%</t>
   </si>
   <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>35,01%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>64,99%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>38,52%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>61,48%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido otros medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
   <si>
     <t>94,82%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>73,84%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>81,49%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>65,71%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
+  </si>
+  <si>
+    <t>82,28%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
+  </si>
+  <si>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>79,72%</t>
+  </si>
+  <si>
+    <t>70,47%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>42,38%</t>
   </si>
   <si>
     <t>17,79%</t>
   </si>
   <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>83,18%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>57,62%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
   </si>
   <si>
     <t>82,21%</t>
   </si>
   <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido otros medicamentos en 2015 (Tasa respuesta: 17,45%)</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>81,88%</t>
-  </si>
-  <si>
-    <t>73,93%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>79,72%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>35,1%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
+    <t>64,37%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
   </si>
   <si>
     <t>78,83%</t>
   </si>
   <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
   </si>
   <si>
     <t>20,32%</t>
   </si>
   <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>26,46%</t>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
   </si>
   <si>
     <t>17,0%</t>
   </si>
   <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
+    <t>15,09%</t>
   </si>
   <si>
     <t>79,68%</t>
   </si>
   <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>73,89%</t>
+  </si>
+  <si>
+    <t>85,07%</t>
   </si>
   <si>
     <t>83,0%</t>
   </si>
   <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
+    <t>84,91%</t>
   </si>
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
@@ -634,208 +634,208 @@
     <t>13,47%</t>
   </si>
   <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
   </si>
   <si>
     <t>24,14%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>42,92%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
   </si>
   <si>
     <t>18,08%</t>
   </si>
   <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
   </si>
   <si>
     <t>86,53%</t>
   </si>
   <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>75,86%</t>
   </si>
   <si>
-    <t>57,08%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>55,28%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>81,92%</t>
   </si>
   <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>18,34%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>15,54%</t>
   </si>
   <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
   </si>
   <si>
     <t>16,96%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
   </si>
   <si>
     <t>84,46%</t>
   </si>
   <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
   </si>
   <si>
     <t>83,04%</t>
   </si>
   <si>
-    <t>75,44%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
   </si>
   <si>
     <t>23,54%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
   </si>
   <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
+    <t>76,05%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
   </si>
   <si>
     <t>76,46%</t>
   </si>
   <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>82,06%</t>
   </si>
   <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
   </si>
   <si>
     <t>23,92%</t>
   </si>
   <si>
-    <t>42,76%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
   </si>
   <si>
     <t>17,99%</t>
   </si>
   <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
   </si>
   <si>
     <t>13,78%</t>
   </si>
   <si>
-    <t>31,65%</t>
+    <t>31,54%</t>
   </si>
   <si>
     <t>76,08%</t>
   </si>
   <si>
-    <t>57,24%</t>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>82,01%</t>
   </si>
   <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
+    <t>67,64%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
   </si>
   <si>
     <t>86,22%</t>
@@ -844,55 +844,49 @@
     <t>18,46%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
   </si>
   <si>
     <t>19,24%</t>
   </si>
   <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
+    <t>23,91%</t>
   </si>
   <si>
     <t>81,54%</t>
   </si>
   <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
   </si>
   <si>
     <t>80,76%</t>
   </si>
   <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>85,28%</t>
+    <t>76,09%</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E54F8A9-10A8-456C-9027-930F087F85B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707B436E-38CF-4A64-AD89-DBC61CE88EC2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2211,7 +2205,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD2AFD2C-EEAE-4D12-8BE1-554F3219D4CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886F421B-5FE2-43D2-8D9D-B35EC4657B2A}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2815,13 +2809,13 @@
         <v>3925</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2830,13 +2824,13 @@
         <v>9489</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2851,13 +2845,13 @@
         <v>17193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>25</v>
@@ -2866,13 +2860,13 @@
         <v>18140</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>104</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -2881,13 +2875,13 @@
         <v>35334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2949,13 @@
         <v>25045</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H16" s="7">
         <v>32</v>
@@ -2970,13 +2964,13 @@
         <v>21668</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -2985,13 +2979,13 @@
         <v>46712</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3000,13 @@
         <v>98231</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H17" s="7">
         <v>160</v>
@@ -3021,13 +3015,13 @@
         <v>105793</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -3036,10 +3030,10 @@
         <v>204025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>195</v>
@@ -3118,7 +3112,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F525514-58FC-479A-B5A1-A28525F56D90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693C28B6-E84A-41C5-8BA3-4D7F404D4362}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3710,10 +3704,10 @@
         <v>251</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H13" s="7">
         <v>14</v>
@@ -3722,13 +3716,13 @@
         <v>10223</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -3737,7 +3731,7 @@
         <v>25060</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>256</v>
+        <v>90</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>257</v>
@@ -3764,7 +3758,7 @@
         <v>260</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="H14" s="7">
         <v>57</v>
@@ -3773,13 +3767,13 @@
         <v>46599</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>119</v>
@@ -3788,7 +3782,7 @@
         <v>93779</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>264</v>
+        <v>98</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>265</v>
@@ -3895,10 +3889,10 @@
         <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3907,13 @@
         <v>140695</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H17" s="7">
         <v>183</v>
@@ -3928,13 +3922,13 @@
         <v>124699</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
@@ -3943,13 +3937,13 @@
         <v>265393</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>283</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>284</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A98-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A98-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE812D34-6DD0-4816-A315-987C05614730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03DDCA9E-F822-4E40-A061-2F4F46DDD932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6A7C01EC-0387-4669-B4F3-EA25864B4A0C}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{314348CA-EDFA-4246-9D2E-8C37E288C6FA}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,15 +38,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="285">
   <si>
     <t>Menores según si ha consumido otros medicamentos en 2012 (Tasa respuesta: 20,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,61 +73,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
     <t>11,39%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
   </si>
   <si>
     <t>13,26%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
     <t>88,61%</t>
   </si>
   <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
   </si>
   <si>
     <t>86,74%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>78,62%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>100%</t>
@@ -136,226 +136,226 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
     <t>12,85%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
   </si>
   <si>
     <t>11,56%</t>
   </si>
   <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>87,15%</t>
   </si>
   <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>88,44%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>35,01%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>35,1%</t>
   </si>
   <si>
     <t>18,07%</t>
   </si>
   <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>22,03%</t>
+  </si>
+  <si>
     <t>10,43%</t>
   </si>
   <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>64,99%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>69,64%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>81,93%</t>
-  </si>
-  <si>
-    <t>71,96%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>77,97%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
   </si>
   <si>
     <t>89,57%</t>
   </si>
   <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>38,52%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>77,97%</t>
-  </si>
-  <si>
-    <t>61,48%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
     <t>85,66%</t>
   </si>
   <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>13,69%</t>
   </si>
   <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
   </si>
   <si>
     <t>86,31%</t>
   </si>
   <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
+    <t>82,69%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -364,184 +364,178 @@
     <t>Menores según si ha consumido otros medicamentos en 2016 (Tasa respuesta: 17,45%)</t>
   </si>
   <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>15,0%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
   </si>
   <si>
     <t>86,15%</t>
   </si>
   <si>
-    <t>72,42%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
   </si>
   <si>
     <t>85,0%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
   </si>
   <si>
     <t>17,72%</t>
   </si>
   <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
   </si>
   <si>
     <t>18,12%</t>
   </si>
   <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>70,14%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>82,28%</t>
   </si>
   <si>
-    <t>70,21%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>69,58%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>71,37%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
   </si>
   <si>
     <t>81,88%</t>
   </si>
   <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>88,09%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
   </si>
   <si>
     <t>20,28%</t>
   </si>
   <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>71,68%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
   </si>
   <si>
     <t>79,72%</t>
   </si>
   <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>42,38%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
   </si>
   <si>
     <t>21,17%</t>
@@ -553,22 +547,22 @@
     <t>32,59%</t>
   </si>
   <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>57,62%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>64,37%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
   </si>
   <si>
     <t>78,83%</t>
@@ -580,313 +574,325 @@
     <t>87,7%</t>
   </si>
   <si>
-    <t>20,32%</t>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
   </si>
   <si>
     <t>14,93%</t>
   </si>
   <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>79,68%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>77,18%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
   </si>
   <si>
     <t>85,07%</t>
   </si>
   <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
     <t>Menores según si ha consumido otros medicamentos en 2023 (Tasa respuesta: 24,79%)</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,14%</t>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>54,53%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>75,41%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>81,11%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>83,24%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
   </si>
   <si>
     <t>10,62%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
   </si>
   <si>
     <t>89,38%</t>
   </si>
   <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>83,04%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>82,66%</t>
+  </si>
+  <si>
+    <t>63,19%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>40,73%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>59,27%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>67,64%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>68,46%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
+    <t>81,59%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
   </si>
 </sst>
 </file>
@@ -1298,7 +1304,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707B436E-38CF-4A64-AD89-DBC61CE88EC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A574E592-6FCD-453A-A935-E549EFE4FF89}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1416,10 +1422,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>4304</v>
+        <v>5450</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1431,10 +1437,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>5450</v>
+        <v>4304</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1467,10 +1473,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D5" s="7">
-        <v>33494</v>
+        <v>30334</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1482,10 +1488,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" s="7">
-        <v>30334</v>
+        <v>33494</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1518,25 +1524,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>54</v>
+      </c>
+      <c r="D6" s="7">
+        <v>35784</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>53</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>37798</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>54</v>
-      </c>
-      <c r="I6" s="7">
-        <v>35784</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1571,10 +1577,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="7">
-        <v>8400</v>
+        <v>5293</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1586,10 +1592,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="I7" s="7">
-        <v>5293</v>
+        <v>8400</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1622,10 +1628,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>56959</v>
+        <v>47746</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1637,10 +1643,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I8" s="7">
-        <v>47746</v>
+        <v>56959</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1673,25 +1679,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>75</v>
+      </c>
+      <c r="D9" s="7">
+        <v>53039</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>91</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>65359</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>75</v>
-      </c>
-      <c r="I9" s="7">
-        <v>53039</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1729,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="7">
-        <v>5427</v>
+        <v>4875</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1744,7 +1750,7 @@
         <v>7</v>
       </c>
       <c r="I10" s="7">
-        <v>4875</v>
+        <v>5427</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1777,10 +1783,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7">
-        <v>21711</v>
+        <v>24995</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1792,10 +1798,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I11" s="7">
-        <v>24995</v>
+        <v>21711</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1828,25 +1834,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>42</v>
+      </c>
+      <c r="D12" s="7">
+        <v>29870</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>38</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>27138</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>42</v>
-      </c>
-      <c r="I12" s="7">
-        <v>29870</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1881,10 +1887,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>5344</v>
+        <v>1854</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1896,10 +1902,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I13" s="7">
-        <v>1854</v>
+        <v>5344</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1932,10 +1938,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7">
-        <v>18917</v>
+        <v>24069</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1947,10 +1953,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>24069</v>
+        <v>18917</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1983,25 +1989,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>25923</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>35</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>24261</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>37</v>
-      </c>
-      <c r="I15" s="7">
-        <v>25923</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2036,10 +2042,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>23475</v>
+        <v>17473</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2051,10 +2057,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I16" s="7">
-        <v>17473</v>
+        <v>23475</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2087,10 +2093,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D17" s="7">
-        <v>131080</v>
+        <v>127143</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2102,10 +2108,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="I17" s="7">
-        <v>127143</v>
+        <v>131080</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2138,25 +2144,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>208</v>
+      </c>
+      <c r="D18" s="7">
+        <v>144616</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>217</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>154555</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>208</v>
-      </c>
-      <c r="I18" s="7">
-        <v>144616</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2205,7 +2211,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{886F421B-5FE2-43D2-8D9D-B35EC4657B2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458CB4B2-0F71-4B27-A2AC-7732D790DF34}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2323,10 +2329,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>3321</v>
+        <v>4328</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2338,10 +2344,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>4328</v>
+        <v>3321</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2374,10 +2380,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>20655</v>
+        <v>22705</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2389,10 +2395,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>22705</v>
+        <v>20655</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2425,25 +2431,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>44</v>
+      </c>
+      <c r="D6" s="7">
+        <v>27033</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>38</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>23976</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>44</v>
-      </c>
-      <c r="I6" s="7">
-        <v>27033</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2481,7 +2487,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>7638</v>
+        <v>7828</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>126</v>
@@ -2496,7 +2502,7 @@
         <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>7828</v>
+        <v>7638</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>129</v>
@@ -2529,10 +2535,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D8" s="7">
-        <v>35458</v>
+        <v>34411</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>135</v>
@@ -2544,10 +2550,10 @@
         <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I8" s="7">
-        <v>34411</v>
+        <v>35458</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>138</v>
@@ -2580,25 +2586,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>65</v>
+      </c>
+      <c r="D9" s="7">
+        <v>42239</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>63</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43096</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42239</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2633,34 +2639,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D10" s="7">
-        <v>8521</v>
+        <v>5587</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7">
+        <v>8521</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H10" s="7">
-        <v>8</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5587</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M10" s="7">
         <v>20</v>
@@ -2669,13 +2675,13 @@
         <v>14109</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,34 +2690,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>44</v>
+      </c>
+      <c r="D11" s="7">
+        <v>30537</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="7">
         <v>35</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>24925</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H11" s="7">
-        <v>44</v>
-      </c>
-      <c r="I11" s="7">
-        <v>30537</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M11" s="7">
         <v>79</v>
@@ -2720,13 +2726,13 @@
         <v>55461</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,25 +2741,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>52</v>
+      </c>
+      <c r="D12" s="7">
+        <v>36124</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>47</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>33446</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>52</v>
-      </c>
-      <c r="I12" s="7">
-        <v>36124</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2788,34 +2794,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>6</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3925</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>5565</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H13" s="7">
-        <v>6</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3925</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M13" s="7">
         <v>14</v>
@@ -2824,13 +2830,13 @@
         <v>9489</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2839,34 +2845,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7">
+        <v>18140</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
         <v>23</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>17193</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H14" s="7">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>18140</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M14" s="7">
         <v>48</v>
@@ -2875,13 +2881,13 @@
         <v>35334</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2893,7 +2899,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="7">
-        <v>22758</v>
+        <v>22065</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2908,7 +2914,7 @@
         <v>31</v>
       </c>
       <c r="I15" s="7">
-        <v>22065</v>
+        <v>22758</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2943,34 +2949,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>32</v>
+      </c>
+      <c r="D16" s="7">
+        <v>21668</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
         <v>36</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>25045</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="H16" s="7">
-        <v>32</v>
-      </c>
-      <c r="I16" s="7">
-        <v>21668</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M16" s="7">
         <v>68</v>
@@ -2979,10 +2985,10 @@
         <v>46712</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>185</v>
@@ -2994,34 +3000,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>160</v>
+      </c>
+      <c r="D17" s="7">
+        <v>105793</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="7">
         <v>143</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>98231</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="H17" s="7">
-        <v>160</v>
-      </c>
-      <c r="I17" s="7">
-        <v>105793</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M17" s="7">
         <v>303</v>
@@ -3030,13 +3036,13 @@
         <v>204025</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3045,25 +3051,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>192</v>
+      </c>
+      <c r="D18" s="7">
+        <v>127461</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>179</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>123276</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>192</v>
-      </c>
-      <c r="I18" s="7">
-        <v>127461</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3112,7 +3118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{693C28B6-E84A-41C5-8BA3-4D7F404D4362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D94721E-E095-4358-B34F-47E1E67A42BB}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3129,7 +3135,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3230,49 +3236,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7">
+        <v>3883</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="7">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
-        <v>2820</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>2951</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="H4" s="7">
-        <v>7</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3849</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M4" s="7">
         <v>13</v>
       </c>
       <c r="N4" s="7">
-        <v>6669</v>
+        <v>6833</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3281,49 +3287,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>23</v>
+      </c>
+      <c r="D5" s="7">
+        <v>12100</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H5" s="7">
         <v>36</v>
       </c>
-      <c r="D5" s="7">
-        <v>18115</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>19406</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="H5" s="7">
-        <v>23</v>
-      </c>
-      <c r="I5" s="7">
-        <v>12093</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>30208</v>
+        <v>31507</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3332,25 +3338,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>30</v>
-      </c>
       <c r="I6" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3365,7 +3371,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3385,49 +3391,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7">
+        <v>6768</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H7" s="7">
         <v>14</v>
       </c>
-      <c r="D7" s="7">
-        <v>8436</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>9255</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="H7" s="7">
-        <v>10</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6955</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>24</v>
       </c>
       <c r="N7" s="7">
-        <v>15391</v>
+        <v>16022</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3436,49 +3442,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>62</v>
+      </c>
+      <c r="D8" s="7">
+        <v>39855</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H8" s="7">
         <v>61</v>
       </c>
-      <c r="D8" s="7">
-        <v>37566</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>39729</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="H8" s="7">
-        <v>62</v>
-      </c>
-      <c r="I8" s="7">
-        <v>37789</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>123</v>
       </c>
       <c r="N8" s="7">
-        <v>75355</v>
+        <v>79585</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3487,25 +3493,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="D9" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
       <c r="I9" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3520,7 +3526,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3540,49 +3546,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7">
+        <v>8576</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
-        <v>5749</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>5946</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H10" s="7">
-        <v>12</v>
-      </c>
-      <c r="I10" s="7">
-        <v>8686</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="M10" s="7">
         <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>14435</v>
+        <v>14521</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3591,49 +3597,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>41</v>
+      </c>
+      <c r="D11" s="7">
+        <v>28575</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="7">
         <v>49</v>
       </c>
-      <c r="D11" s="7">
-        <v>37834</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>40223</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H11" s="7">
-        <v>41</v>
-      </c>
-      <c r="I11" s="7">
-        <v>28217</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>247</v>
       </c>
       <c r="M11" s="7">
         <v>90</v>
       </c>
       <c r="N11" s="7">
-        <v>66051</v>
+        <v>68799</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3642,25 +3648,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
       <c r="I12" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3675,7 +3681,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3695,49 +3701,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>14</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13517</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="7">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
-        <v>14836</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>15365</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H13" s="7">
-        <v>14</v>
-      </c>
-      <c r="I13" s="7">
-        <v>10223</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
       </c>
       <c r="N13" s="7">
-        <v>25060</v>
+        <v>28882</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>90</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,43 +3752,43 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>57</v>
+      </c>
+      <c r="D14" s="7">
+        <v>64440</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="7">
         <v>62</v>
       </c>
-      <c r="D14" s="7">
-        <v>47180</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>49327</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H14" s="7">
-        <v>57</v>
-      </c>
-      <c r="I14" s="7">
-        <v>46599</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M14" s="7">
         <v>119</v>
       </c>
       <c r="N14" s="7">
-        <v>93779</v>
+        <v>113767</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>98</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>265</v>
@@ -3797,25 +3803,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7">
+        <v>77957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>77</v>
       </c>
-      <c r="D15" s="7">
-        <v>62016</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>71</v>
-      </c>
       <c r="I15" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3830,7 +3836,7 @@
         <v>148</v>
       </c>
       <c r="N15" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3850,10 +3856,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>31842</v>
+        <v>32743</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>267</v>
@@ -3865,10 +3871,10 @@
         <v>269</v>
       </c>
       <c r="H16" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I16" s="7">
-        <v>29713</v>
+        <v>33516</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>270</v>
@@ -3883,16 +3889,16 @@
         <v>85</v>
       </c>
       <c r="N16" s="7">
-        <v>61555</v>
+        <v>66259</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>181</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,49 +3907,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>183</v>
+      </c>
+      <c r="D17" s="7">
+        <v>144972</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="7">
         <v>208</v>
       </c>
-      <c r="D17" s="7">
-        <v>140695</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H17" s="7">
-        <v>183</v>
-      </c>
       <c r="I17" s="7">
-        <v>124699</v>
+        <v>148685</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>391</v>
       </c>
       <c r="N17" s="7">
-        <v>265393</v>
+        <v>293657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,25 +3958,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>226</v>
+      </c>
+      <c r="D18" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>250</v>
       </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
       <c r="I18" s="7">
-        <v>154412</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3985,7 +3991,7 @@
         <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>326948</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
